--- a/tables/tbl-02-project-activities.xlsx
+++ b/tables/tbl-02-project-activities.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">obj_id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Q6</t>
   </si>
   <si>
-    <t xml:space="preserve">Within 12 months after the start of the project, a usage policy for LLMs and associated teaching module is being re-used by other classes at ETH or beyond.</t>
+    <t xml:space="preserve">Within 12 months after the start of the project, a usage policy for LLMs and an associated teaching module is being re-used by other classes at ETH or beyond.</t>
   </si>
   <si>
     <t xml:space="preserve">Develop a 3-hour module introducing LLMs for software development, ethical considerations and prompting AI for different use cases.</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Create a collection of 60 problem statements (20 for each level of complexity: low, medium, high) for R programming tasks, along with their respective AI prompts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Identify an appropriate format to publish problem statements and prompts under an open and permissive license as a prompt library.</t>
+    <t xml:space="preserve">Identify an appropriate format to publish problem statements and prompts under an open and permissive licence as a prompt library.</t>
   </si>
   <si>
     <t xml:space="preserve">Conduct a student survey prior to the class to identify students’ prior knowledge in the R programming language and programming in general.</t>
@@ -77,16 +77,13 @@
     <t xml:space="preserve">For each class module that teaches R programming concepts, use LLMs to design a formative assessments with a minimum of 10 in total.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduce required time for generating formative assessments for R programming concepts by 90%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Write five formative assessments without the support of LLMs and compare the time requirements to those prepared with the support of AI.</t>
   </si>
   <si>
     <t xml:space="preserve">Write tutorials using the learnR R package for developed formative assessments (minimum 10 in total) and publish learnR tutorials as open-source code through GitHub using open and permissive licenses.</t>
   </si>
   <si>
-    <t xml:space="preserve">Achieve a grade distribution in the final exam where at least 70% of the students score between 5 and 6, with no more than 10% scoring the maximum grade of 6.</t>
+    <t xml:space="preserve">Achieve a grade distribution in the final exam where at least 80% of the students score between 5 and 6, with no more than 10% scoring the maximum grade of 6.</t>
   </si>
   <si>
     <t xml:space="preserve">Create a set of 10-15 exam questions that cover a range of R programming concepts, techniques, and LLM applications, ensuring that at least 80% of the course material is represented in the questions.</t>
@@ -639,13 +636,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>3.2</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -663,13 +660,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
         <v>3.3</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -691,13 +688,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>4.1</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
@@ -715,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>4.2</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
